--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportCosts.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportCosts.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Coûts" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Costs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -121,10 +121,10 @@
     <t xml:space="preserve">#</t>
   </si>
   <si>
-    <t xml:space="preserve">Entité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variantes</t>
+    <t xml:space="preserve">Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variants</t>
   </si>
   <si>
     <t xml:space="preserve">Level</t>
@@ -218,7 +218,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,12 +229,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F7FA"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF009DCC"/>
-        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -278,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,10 +282,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,7 +309,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF009DCC"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -375,19 +365,19 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="C8:U8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="1" min="1" style="0" width="29.02"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="2" min="2" style="0" width="62.45"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="1" min="1" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="2" min="2" style="0" width="62.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="35.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="26.24"/>
@@ -519,61 +509,61 @@
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="2" t="s">
         <v>52</v>
       </c>
     </row>
